--- a/xls/guildUpHallConfig.xlsx
+++ b/xls/guildUpHallConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="30" windowWidth="27765" windowHeight="13620"/>
+    <workbookView xWindow="18600" yWindow="30" windowWidth="27765" windowHeight="13620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="代对表=" sheetId="2" r:id="rId1"/>
@@ -29,26 +29,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>增加数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>reputation[.][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>声誉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>needTime[.][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -61,12 +45,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>检查次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>公会大厅升级配置:GuildUpHallConfig</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加数量</t>
+  </si>
+  <si>
+    <t>声誉</t>
+  </si>
+  <si>
+    <t>升级时间</t>
+  </si>
+  <si>
+    <t>需要资金</t>
+  </si>
+  <si>
+    <t>侦查次数</t>
   </si>
 </sst>
 </file>
@@ -458,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -472,7 +467,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -503,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -525,16 +520,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -544,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -572,13 +567,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3">
-        <v>1000</v>
+        <v>400000</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -591,16 +586,16 @@
         <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3">
-        <v>1001</v>
+        <v>800000</v>
       </c>
       <c r="F4" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -613,16 +608,16 @@
         <v>20</v>
       </c>
       <c r="C5" s="3">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="D5" s="3">
-        <v>1001</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3">
-        <v>1002</v>
+        <v>3000000</v>
       </c>
       <c r="F5" s="3">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -635,16 +630,16 @@
         <v>30</v>
       </c>
       <c r="C6" s="3">
-        <v>102</v>
+        <v>360</v>
       </c>
       <c r="D6" s="3">
-        <v>1002</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3">
-        <v>1003</v>
+        <v>6000000</v>
       </c>
       <c r="F6" s="3">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -654,19 +649,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3">
-        <v>103</v>
+        <v>720</v>
       </c>
       <c r="D7" s="3">
-        <v>1003</v>
+        <v>33</v>
       </c>
       <c r="E7" s="3">
-        <v>1004</v>
+        <v>9000000</v>
       </c>
       <c r="F7" s="3">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -676,19 +671,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C8" s="3">
-        <v>104</v>
+        <v>1400</v>
       </c>
       <c r="D8" s="3">
-        <v>1004</v>
+        <v>65</v>
       </c>
       <c r="E8" s="3">
-        <v>1005</v>
+        <v>33000000</v>
       </c>
       <c r="F8" s="3">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -698,19 +693,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C9" s="3">
-        <v>105</v>
+        <v>3000</v>
       </c>
       <c r="D9" s="3">
-        <v>1005</v>
+        <v>129</v>
       </c>
       <c r="E9" s="3">
-        <v>1006</v>
+        <v>60000000</v>
       </c>
       <c r="F9" s="3">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -720,19 +715,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3">
-        <v>106</v>
+        <v>8000</v>
       </c>
       <c r="D10" s="3">
-        <v>1006</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>1007</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
